--- a/TestResultLoginWeb/Test_Automation_Results.xlsx
+++ b/TestResultLoginWeb/Test_Automation_Results.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251128_133542</t>
+          <t>20251128_144516</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251128_133601</t>
+          <t>20251128_144534</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20251128_133612</t>
+          <t>20251128_144547</t>
         </is>
       </c>
     </row>

--- a/TestResultLoginWeb/Test_Automation_Results.xlsx
+++ b/TestResultLoginWeb/Test_Automation_Results.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251128_144516</t>
+          <t>20251128_181952</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251128_144534</t>
+          <t>20251128_182001</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20251128_144547</t>
+          <t>20251128_182013</t>
         </is>
       </c>
     </row>

--- a/TestResultLoginWeb/Test_Automation_Results.xlsx
+++ b/TestResultLoginWeb/Test_Automation_Results.xlsx
@@ -516,14 +516,14 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251128_181952</t>
+          <t>20251129_173318</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Login failed - Password</t>
+          <t>Login failed - Password incorrect</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -534,7 +534,7 @@
       <c r="C3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Open browser and go to http://theinternet.herokuapp.com/login.  
-2. Input username tomsmith and password Password!.'
+2. Input username tomsmith and password Password!.
 </t>
         </is>
       </c>
@@ -552,7 +552,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251128_182001</t>
+          <t>20251129_173327</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       <c r="C4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Open browser and go to http://theinternet.herokuapp.com/login.  
-2. Input username tomholland and password Password!.'
+2. Input username tomholland and password Password!.
 </t>
         </is>
       </c>
@@ -588,7 +588,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20251128_182013</t>
+          <t>20251129_173338</t>
         </is>
       </c>
     </row>

--- a/TestResultLoginWeb/Test_Automation_Results.xlsx
+++ b/TestResultLoginWeb/Test_Automation_Results.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251129_173318</t>
+          <t>20251129_181156</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251129_173327</t>
+          <t>20251129_181206</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20251129_173338</t>
+          <t>20251129_181216</t>
         </is>
       </c>
     </row>

--- a/TestResultLoginWeb/Test_Automation_Results.xlsx
+++ b/TestResultLoginWeb/Test_Automation_Results.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251129_181156</t>
+          <t>20251201_161112</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251129_181206</t>
+          <t>20251201_161124</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20251129_181216</t>
+          <t>20251201_161135</t>
         </is>
       </c>
     </row>

--- a/TestResultLoginWeb/Test_Automation_Results.xlsx
+++ b/TestResultLoginWeb/Test_Automation_Results.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251201_161112</t>
+          <t>20251201_213456</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251201_161124</t>
+          <t>20251201_213507</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20251201_161135</t>
+          <t>20251201_213524</t>
         </is>
       </c>
     </row>

--- a/TestResultLoginWeb/Test_Automation_Results.xlsx
+++ b/TestResultLoginWeb/Test_Automation_Results.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251201_213456</t>
+          <t>20251202_090621</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251201_213507</t>
+          <t>20251202_090630</t>
         </is>
       </c>
     </row>
@@ -583,12 +583,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20251201_213524</t>
+          <t>20251202_090640</t>
         </is>
       </c>
     </row>

--- a/TestResultLoginWeb/Test_Automation_Results.xlsx
+++ b/TestResultLoginWeb/Test_Automation_Results.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>20251202_090621</t>
+          <t>20251202_091103</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>20251202_090630</t>
+          <t>20251202_091112</t>
         </is>
       </c>
     </row>
@@ -583,12 +583,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20251202_090640</t>
+          <t>20251202_091121</t>
         </is>
       </c>
     </row>

--- a/TestResultLoginWeb/Test_Automation_Results.xlsx
+++ b/TestResultLoginWeb/Test_Automation_Results.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestResult" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CoverPage" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestResultOfLoginWeb" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TestResultOfApi" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -61,8 +63,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -434,6 +438,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Test Date Time</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>20251208T202533</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Test By</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Vinit Prasobphon</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Env. Test</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Dev1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,49 +514,49 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>TestCase Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Obective</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Test Step</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Date Execute</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Login success</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>verify that users can login successfully when input a correct username and password.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Open browser and go to http://theinternet.herokuapp.com/login.  
 2. Input username tomsmith and password  SuperSecretPassword!.  
@@ -501,7 +564,7 @@
 </t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Login page is shown. 
 2. Login success and message You logged into a secure area! is shown.  
@@ -509,86 +572,220 @@
 </t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>20251202_091103</t>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>20251208_202541</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Login failed - Password incorrect</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>verify that users can login unsuccessfully when they input a correct username but wrong password.</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Open browser and go to http://theinternet.herokuapp.com/login.  
 2. Input username tomsmith and password Password!.
 </t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Login page is shown. 
 2. Login failed and the message Your password is invalid! is shown.
 </t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>20251202_091112</t>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>20251208_202552</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Login failed - Username not found incorrect</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>verify that users can login unsuccessfully when they input a username that did not exist.</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Open browser and go to http://theinternet.herokuapp.com/login.  
 2. Input username tomholland and password Password!.
 </t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1. Login page is shown.  
 2. Login failed and the message Your username is invalid! is shown.
 </t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>20251202_091121</t>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>20251208_202605</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>TestCase Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Obective</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Test Step</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Date Execute</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Get user profile success </t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>To verify get user profile api will return correct data when trying to get profile of existing user</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Send Get request to url https://reqres.in/api/users/12 
+</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Verify response status code should be 200 
+2. Compare the response body with expected below. 
+ID == 12 
+Email == rachel.howell@reqres.in 
+First Name == Rachel 
+Last Name == Howell 
+Avatar == https://reqres.in/img/faces/12image.jpg
+</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>20251208_202607</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Get user profile but user not found</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>To verify get user profile api will return 404 not found when trying to get exist profile of not existing user</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Send Get request to url https://reqres.in/api/users/1234 
+</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Verify response status code should be 404. 
+2. Response body should be '{}'
+</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>20251208_202608</t>
         </is>
       </c>
     </row>
